--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>MODEL</t>
   </si>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -478,6 +484,32 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -604,7 +636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,123 +648,144 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1274,7 +1327,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1286,437 +1339,465 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>3999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>3499</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>445</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>211</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>4499</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>3999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>482</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>245</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>5499</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>4999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>581</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>278</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>4499</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>3999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>482</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
         <v>245</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>4999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>4499</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>532</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="9">
         <v>245</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>5999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>5499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>620</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>4999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>4299</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>532</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>245</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>5499</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>4799</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>581</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>278</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>6499</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>5799</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>676</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="6">
         <v>390</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>7499</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>6799</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>789</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <v>390</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>5999</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>5299</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="9">
         <v>620</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <v>278</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>6999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>6299</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>731</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
         <v>390</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>7999</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>7299</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="9">
         <v>789</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <v>390</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>3499</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>2699</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>391</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="6">
         <v>211</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>3999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>3199</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>445</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>211</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>4999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>4199</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="6">
         <v>532</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>245</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>3999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="9">
         <v>3999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="9">
         <v>445</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="9">
         <v>211</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>4499</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <v>4499</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>482</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
         <v>245</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>5499</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <v>5499</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>581</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
         <v>278</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>2999</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="6">
         <v>2299</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>320</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="6">
         <v>178</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>3499</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>2799</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6">
         <v>391</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="6">
         <v>211</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>MODEL</t>
   </si>
@@ -56,6 +56,9 @@
     <t>128GB</t>
   </si>
   <si>
+    <t>https://m-cdn.phonearena.com/images/hub/372-wide-two_1200/Apple-iPhone-16-release-date-price-and-features.jpg</t>
+  </si>
+  <si>
     <t>256GB</t>
   </si>
   <si>
@@ -65,25 +68,43 @@
     <t>iPhone 16 Plus</t>
   </si>
   <si>
+    <t>https://www.apple.com/newsroom/images/2024/09/apple-introduces-iphone-16-and-iphone-16-plus/article/geo/Apple-iPhone-16-finish-lineup-geo-240909_big.jpg.large.jpg</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>iPhone 16 Pro</t>
   </si>
   <si>
+    <t>https://cdn.mos.cms.futurecdn.net/BUjnMt43qGRgpsaBo2nvcC-1200-80.jpg</t>
+  </si>
+  <si>
     <t>1TB</t>
   </si>
   <si>
     <t>iPhone 16 Pro Max</t>
   </si>
   <si>
+    <t>https://www.pocketnews.com.my/wp-content/uploads/2024/09/Apple-iPhone-16-Pro-finish-lineup-240909_big.jpg.large_2x.jpg</t>
+  </si>
+  <si>
     <t>iPhone 15</t>
   </si>
   <si>
+    <t>https://imageio.forbes.com/specials-images/imageserve/65028cd661259a2de79fe77b/Apple-iPhone-15-lineup-color-lineup-geo-230912/960x0.jpg?format=jpg&amp;width=960</t>
+  </si>
+  <si>
     <t>iPhone 15 Plus</t>
   </si>
   <si>
+    <t>https://xtrasure.store/cdn/shop/files/iPhone15Plus_eSim_PhysicalSim.jpg?v=1694864526&amp;width=1200</t>
+  </si>
+  <si>
     <t>iPhone 14</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/products/iPhone_14_PDP_Image_Position-5_Spring23__GBEN.jpg?v=1705478336</t>
   </si>
 </sst>
 </file>
@@ -760,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +803,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +813,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,7 +1354,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1377,14 +1404,16 @@
       <c r="F2" s="6">
         <v>211</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6">
         <v>4499</v>
@@ -1398,14 +1427,16 @@
       <c r="F3" s="6">
         <v>245</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>5499</v>
@@ -1419,74 +1450,82 @@
       <c r="F4" s="6">
         <v>278</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4499</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3999</v>
+      </c>
+      <c r="E5" s="10">
+        <v>482</v>
+      </c>
+      <c r="F5" s="10">
+        <v>245</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4499</v>
+      </c>
+      <c r="E6" s="10">
+        <v>532</v>
+      </c>
+      <c r="F6" s="10">
+        <v>245</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9">
-        <v>4499</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3999</v>
-      </c>
-      <c r="E5" s="9">
-        <v>482</v>
-      </c>
-      <c r="F5" s="9">
-        <v>245</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9">
-        <v>4999</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4499</v>
-      </c>
-      <c r="E6" s="9">
-        <v>532</v>
-      </c>
-      <c r="F6" s="9">
-        <v>245</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>5999</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>5499</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>620</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -1503,14 +1542,16 @@
       <c r="F8" s="6">
         <v>245</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6">
         <v>5499</v>
@@ -1524,14 +1565,16 @@
       <c r="F9" s="6">
         <v>278</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
         <v>6499</v>
@@ -1545,14 +1588,16 @@
       <c r="F10" s="6">
         <v>390</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6">
         <v>7499</v>
@@ -1566,74 +1611,82 @@
       <c r="F11" s="6">
         <v>390</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
         <v>5999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>5299</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="10">
         <v>620</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>278</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10">
         <v>6999</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>6299</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <v>731</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>390</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10">
         <v>7999</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>7299</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>789</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>390</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
@@ -1650,14 +1703,16 @@
       <c r="F15" s="6">
         <v>211</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6">
         <v>3999</v>
@@ -1671,14 +1726,16 @@
       <c r="F16" s="6">
         <v>211</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6">
         <v>4999</v>
@@ -1692,74 +1749,82 @@
       <c r="F17" s="6">
         <v>245</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>3999</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>3999</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="10">
         <v>445</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>211</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
         <v>4499</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>4499</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="10">
         <v>482</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>245</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10">
         <v>5499</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>5499</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="10">
         <v>581</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>278</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
@@ -1776,14 +1841,16 @@
       <c r="F21" s="6">
         <v>178</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="6">
         <v>3499</v>
@@ -1797,9 +1864,34 @@
       <c r="F22" s="6">
         <v>211</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://m-cdn.phonearena.com/images/hub/372-wide-two_1200/Apple-iPhone-16-release-date-price-and-features.jpg"/>
+    <hyperlink ref="G3" r:id="rId1" display="https://m-cdn.phonearena.com/images/hub/372-wide-two_1200/Apple-iPhone-16-release-date-price-and-features.jpg"/>
+    <hyperlink ref="G4" r:id="rId1" display="https://m-cdn.phonearena.com/images/hub/372-wide-two_1200/Apple-iPhone-16-release-date-price-and-features.jpg"/>
+    <hyperlink ref="G5" r:id="rId2" display="https://www.apple.com/newsroom/images/2024/09/apple-introduces-iphone-16-and-iphone-16-plus/article/geo/Apple-iPhone-16-finish-lineup-geo-240909_big.jpg.large.jpg"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://www.apple.com/newsroom/images/2024/09/apple-introduces-iphone-16-and-iphone-16-plus/article/geo/Apple-iPhone-16-finish-lineup-geo-240909_big.jpg.large.jpg"/>
+    <hyperlink ref="G7" r:id="rId2" display="https://www.apple.com/newsroom/images/2024/09/apple-introduces-iphone-16-and-iphone-16-plus/article/geo/Apple-iPhone-16-finish-lineup-geo-240909_big.jpg.large.jpg"/>
+    <hyperlink ref="G8" r:id="rId3" display="https://cdn.mos.cms.futurecdn.net/BUjnMt43qGRgpsaBo2nvcC-1200-80.jpg"/>
+    <hyperlink ref="G9" r:id="rId3" display="https://cdn.mos.cms.futurecdn.net/BUjnMt43qGRgpsaBo2nvcC-1200-80.jpg"/>
+    <hyperlink ref="G10" r:id="rId3" display="https://cdn.mos.cms.futurecdn.net/BUjnMt43qGRgpsaBo2nvcC-1200-80.jpg"/>
+    <hyperlink ref="G11" r:id="rId3" display="https://cdn.mos.cms.futurecdn.net/BUjnMt43qGRgpsaBo2nvcC-1200-80.jpg"/>
+    <hyperlink ref="G12" r:id="rId4" display="https://www.pocketnews.com.my/wp-content/uploads/2024/09/Apple-iPhone-16-Pro-finish-lineup-240909_big.jpg.large_2x.jpg"/>
+    <hyperlink ref="G13" r:id="rId4" display="https://www.pocketnews.com.my/wp-content/uploads/2024/09/Apple-iPhone-16-Pro-finish-lineup-240909_big.jpg.large_2x.jpg"/>
+    <hyperlink ref="G14" r:id="rId4" display="https://www.pocketnews.com.my/wp-content/uploads/2024/09/Apple-iPhone-16-Pro-finish-lineup-240909_big.jpg.large_2x.jpg"/>
+    <hyperlink ref="G15" r:id="rId5" display="https://imageio.forbes.com/specials-images/imageserve/65028cd661259a2de79fe77b/Apple-iPhone-15-lineup-color-lineup-geo-230912/960x0.jpg?format=jpg&amp;width=960"/>
+    <hyperlink ref="G16" r:id="rId5" display="https://imageio.forbes.com/specials-images/imageserve/65028cd661259a2de79fe77b/Apple-iPhone-15-lineup-color-lineup-geo-230912/960x0.jpg?format=jpg&amp;width=960"/>
+    <hyperlink ref="G17" r:id="rId5" display="https://imageio.forbes.com/specials-images/imageserve/65028cd661259a2de79fe77b/Apple-iPhone-15-lineup-color-lineup-geo-230912/960x0.jpg?format=jpg&amp;width=960"/>
+    <hyperlink ref="G18" r:id="rId6" display="https://xtrasure.store/cdn/shop/files/iPhone15Plus_eSim_PhysicalSim.jpg?v=1694864526&amp;width=1200"/>
+    <hyperlink ref="G19" r:id="rId6" display="https://xtrasure.store/cdn/shop/files/iPhone15Plus_eSim_PhysicalSim.jpg?v=1694864526&amp;width=1200"/>
+    <hyperlink ref="G20" r:id="rId6" display="https://xtrasure.store/cdn/shop/files/iPhone15Plus_eSim_PhysicalSim.jpg?v=1694864526&amp;width=1200"/>
+    <hyperlink ref="G21" r:id="rId7" display="https://www.machines.com.my/cdn/shop/products/iPhone_14_PDP_Image_Position-5_Spring23__GBEN.jpg?v=1705478336"/>
+    <hyperlink ref="G22" r:id="rId7" display="https://www.machines.com.my/cdn/shop/products/iPhone_14_PDP_Image_Position-5_Spring23__GBEN.jpg?v=1705478336"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
